--- a/data/hotels_by_city/Dallas/Dallas_shard_111.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_111.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Joey C</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We just stayed one night there, but were generally happy for the price.  Good service, clean room, good a.c., good location.  Only issues was parking, if they ever get full not sure where everyone will park, and the breakfast bar.  I don't generally expect too much from a free breakfast but this one was bad.  Runny scrambled eggs, some sort of round pork disk ( not sausage) swimming in its own grease (?), and dry biscuits, some cereal, and waffles.  Can comment on quality of waffles ( line to get was too long), but rest was bad and the oj tastes like watered down tang.  We just went across street to ihop.  More</t>
   </si>
   <si>
+    <t>anneman2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r573789230-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Jesse B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r572973036-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Stayed here for a week while I was here for work. It is a nice and quite hotel with restaurants in walking distance. Quincy worked the desk every night and he was very friendly and spoke to me every time I seen him. More</t>
   </si>
   <si>
+    <t>725golsan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r572041207-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I appreciate the personal attention.  We even had a power outage one night and Quincy informed each person of the reason and then updated any information he received to residents in timely manner.This person certainly presents a face and attitude that sells this property.  We will return.More</t>
   </si>
   <si>
+    <t>Joanne L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r571155040-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>Stayed here one night and was very pleased with the hotel.  The receptionist was very chatty and welcoming. Our room was large with two queen beds and also a sofa which a sofa bed if you needed more sleeping accommodation. There is a pool outside however it was too cold to swim when we were there. I imagine it would be great in the summer.The breakfast room was large and well stocked with eggs and bacon as well as the usual cereals, waffles etc.There is a gas station next door and there appeared to be several restaurants (mostly fast food) near by.  It's near a very busy road but we were not disturbed by the noise. More</t>
   </si>
   <si>
+    <t>Davidhasselho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r494528794-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>The hotel itself was fine.  Everything you expect from a Comfort Suites.  Breakfast was average, room was nice, clean, and comfortable.  We were here for 2 nights for a softball tournament with the whole team.  The first night one of the parents had their truck stolen from the parking lot of the hotel.  The parking lot is scary anyhow with a gas station sharing the driveway and bums and panhandlers hanging out.  When we arrived in the lobby to check in, there were 2 shady looking guys hanging out with the desk clerk.  The next morning one of our trucks was gone.  The truck was parked directly behind the hotel.  When the police arrived, the security cameras just happened to be off for 45 minutes at the exact time that the truck was stolen.  The truck was on the camera, the camera turned off, and when it came back on the truck was gone.  AMAZING TIMING!!The next night, they had a "security" guard that drove through the parking lot.  I asked if they would be there all night, and was told that they share with other hotels, but they would be back and forth.  I did my own security and checked the parking lot several times during the night.More</t>
   </si>
   <si>
+    <t>ndrsandoval</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r466410885-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>The young man in the front desk Kaylon ( I believe that's his name) was such a great well spoken person. He made me feel comfortable and welcome. He answered all my questions and was just awesome to work with. The service here is good. Room nice and neatly clean and sanitized. Had more than enough towels. This is my 4th time staying here for different reasons and occasations. Each time is just a good experience for me and the kids. Thanks Comfort Suites.More</t>
   </si>
   <si>
+    <t>texasgirl219</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r446076072-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>We only stayed here one night. The hotel itself was fine, our room was clean and quiet. Breakfast was okay, typical of this type of hotel.  The only thing I wasn't thrilled with was the parking arrangements.  We arrived to check in around 11:30pm, after attending a game at AT&amp;T stadium.  Parking was completely full around the perimeter of the hotel, as I drove completely around to double check. Although in reality I wouldn't have parked around back anyway since it was extremely dark and I was alone with my kids. I had to park in front of the adjacent Gas Station. The upside was that it was well lit.  But I wasn't entirely comfortable leaving my car there when it was obvious we would be at the hotel. I felt it pretty points a finger, letting thieves know that if they were to break in, nobody would notice! (Side note, the gas station itself was closed at that time of night so I am not sure if it was good or bad that there wasn't a flow of people coming and going). The price was reasonable comparatively to hotels closer to AT&amp;T, so for that reason I would probably stay here again.More</t>
   </si>
   <si>
+    <t>Randy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r445011883-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>Was in town for a high school play off game. I read the reviews and was very pleased with the hotel. It looks really new or renovated. The bathrooms were very neat and clean. It is really convenient to eating places.  Not a lot of road noise even though it is right by the freeway. I'd definitely stay here again. More</t>
   </si>
   <si>
+    <t>goyogonzalez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r444934788-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>Leave the room at 11am and tell the office boy .. Please send housekeeping to my room  I will be back at 11pm... oh yes!!! then I returned and what?  my room is a mess. call the office and they told me.  the priority are the new customers...  I payed 3 nights in advance and now I am not the priority?  its not GOOD... its very BAD Service.Just 20 cars spots in the parking lot. I had to park my truck on a gas station!!!!!!More</t>
   </si>
   <si>
+    <t>Ansari009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r354601883-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>Frankly speaking, I Loved this hotel. Location wasn't that good but the Hotel itself is lovely. It was different from other choice hotel properties in regards to the size of the hotel. The room was pretty good and the reception area was clean and different to usual 3* hotels. Wanted to use pool but it was close. Better luck next time. I would recommend other travelers to stay at this Comfort Suite.Thank YouRegardsHamza AnsariMore</t>
   </si>
   <si>
+    <t>Joel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r354560375-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Alysen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r332514966-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -483,6 +522,9 @@
     <t>Staff was friendly. I came into town to celebrate a birthday with a few friends and we all did enjoy our stay. The breakfast was delicious! The only negative thing I have to say is there were dead crickets on the side of my bed. I dropped an earring and when I finally thought that I had found it I picked a cricket instead. The room was very very clean besides that. We will definitely be back.More</t>
   </si>
   <si>
+    <t>TomCaine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r322639068-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>Terrible stay, paid for a suite, got a crappy, smelly room with a wet floor/carpet, the smell was so bad that we had to sleep with the window open - directly to the highway with traffic and emergency vehicle noise all night long, got sick in the process, went home sick, was sick for two weeks afterwards. Litter strewn parking lot and property with all kinds of "folks" hanging out drinking and smoking god knows what. Complete carelessness paid to the free breakfast, microwave slop that's comparable to cellblock fodder. Even the simplest of things like requesting extra towels hadd to be done 3+ times before receiving them. Staff treated us like we were servants when we brought the issues to their attention, shrugging it off as it none of it was their responsibility, when finally contacted by the management over a day later, we were offered 30% refund for our trouble, then were reimbursed only 10% when all was said and done.More</t>
   </si>
   <si>
+    <t>traveler-pair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r312893783-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
     <t>Our room was clean, very comfortable , good beds and linens good service and good business center and breakfast was good.we will  stay here again every chance we get. the rooms had a microfridge and coffee pot, firm pillows or soft pillows both in the rooms very nice bathroom with blow dryers that work well.More</t>
   </si>
   <si>
+    <t>Jaime G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r312088696-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>High ceilings and immaculate rooms is what you'll get when you book here. My only complaints are that they need to work on those pool and wifi service. The breakfast area had a spread of many favorites for those traveling on a budget (One less meal to buy). We stayed in the first floor and noise was not a factor. Hotel was full. More</t>
   </si>
   <si>
+    <t>BamaTammie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r307984024-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>Great location, friendly staff, quick check in, free wi-fi.  The room was clean and spacious! Located near restaurants, gas stations and a Walmart! Close drive to the airport (Love Field) and located close to 6 flags and AT&amp;T Stadium (about 15 minutes away). I will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Kgardner120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r291600637-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -600,6 +654,9 @@
     <t>The Comfort Suites was very clean, friendly reception, and nicely decorated.  My husband and I were very concerned about the noise due to the closeness of Interstate 30, but we were pleasantly surprised.  It was very quiet, we heard no road noise and slept very peacefully.  The bed was comfortable, the sheets were nice.  The only reason I didn't give this hotel a 5 rating was because our room appeared to have not been completed by the maid.  The pillows were on the sofa bed, and the overlay of the bed was as well.  The bed was made and the room was very clean, it just looked as if she was called away and forgot to return.  I didn't have a chance nor feel the desire to bring it to management attention, like I said, the room was very clean and so BIG.  We were very happy with our stay here. Breakfast was typical of this hotel chain, with the exception of Texas shaped waffles. How fun!  Recommend this hotel!More</t>
   </si>
   <si>
+    <t>Ethan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r278773033-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -621,6 +678,9 @@
     <t>One of the best Comfort Suites I have stayed in and I am a big fan of Comfort Suites. Booked 8 rooms with the Manager Jandel and she took care of everything.  Even check with me the week of arrival to make sure she had everything correct.  Check-in and check-out was very easy and everyone we dealt with was top notch.  Had a late night meeting in the lobby area and the attendant on duty brought us water and fruit bars when the meeting went long.  Just little things that made the stay enjoyable.  Rooms were very clean, updated and comfortable.  Just a very pleasant stay.More</t>
   </si>
   <si>
+    <t>Ariesgurl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r277321076-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -639,6 +699,9 @@
     <t>I stayed here one. Check in was smooth, the staff was friendly and the rooms were clean. We had 3 rooms. The hotel is really quite and the place was packed with kids. The location was great. It seems s little isolated but it was close to major eateries and a walmart. There a lot of stuff within walking distance. Breakfast was ok. I didnt like the factory frozen round egg patty but the sausages and blueberry waffles were good. I don't care the way their AC units work. At both of the comfort suites the AC units stay on fan and that takes away from how cold the room can really get. Overall i would stay again.More</t>
   </si>
   <si>
+    <t>thesandbee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r257625715-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +720,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Sam2050</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r250489617-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -675,6 +741,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Erica W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r247637780-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -693,6 +762,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>828TJA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r245115235-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
     <t>This hotel sits at the intersection of I-30 and Cockrell Hill Road, so getting here is easy because you can see it from the freeway.  However, oddly, it sits behind a Shell station that a person must drive through to get there, or else drive way around by the Sonic restaurant or the hotel next door.  Altogether there are several restaurants nearby, including the restaurants in the mall across Cockrell Hill Road, and a bunch more on the opposite side of the freeway.The rooms are spacious and clean.  Staff is friendly and helpful.  Internet service is free and good.  The outdoor pool is closed except during the warm season.  The small exercise room has three pieces of equipment.The breakfast is complete with eggs, meat, Texas-shaped waffles, cereal, and the other usual items.  It appears that the desk clerk does double duty setting up the food, so every morning something wasn't ready when breakfast began.  One morning no forks, two mornings no yogurt, another morning no meat for 20 minutes, once no syrup, etc.  This happened at every one of the six breakfasts we ate there.  They need more staff.One thing we truly appreciated at breakfast: The TV usually was off instead of blaring out at the people trying to eat.  Even when it was on it wasn't loud.  Blessings to the staff!  We wish more hotels were that considerate.More</t>
   </si>
   <si>
+    <t>Nicole_Shreveport</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r217463514-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +813,9 @@
     <t>We stayed here last night and it's turned out to be a nightmare! The lady tried to say our card didn't go through and she would need to run it again. I never questioned it but gave her my card and let her run it again. As we were waiting for our keys I signed into my regions account and sure enough was charged twice. They have refused to correct this or comp us in ANY way. Said it would take a few days to sort itself out. Now with us th s t-shirt an issue because we were on a tight budget. They don't care and the manager said nothing she can do-her words exactly. Don't stay here. It's not worth it.More</t>
   </si>
   <si>
+    <t>Eurokatie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r217016068-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -756,6 +834,9 @@
     <t>This hotel was ok for me. It was clean and the interior was update but showing small signs of wear. Being right next to a gas station/Sonic was interesting but didn't seem to be too distracting once inside. It was close to downtown area and decent for the price. The staff were what really made this hotel stand out. They were excellent.More</t>
   </si>
   <si>
+    <t>roshop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r215710345-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -780,6 +861,9 @@
     <t>We stayed due to World Series. Everything was excellent, rooms were cleaned everyday. Staff was friendly and help with any directions needed even offered to print out if I wanted. Breakfast was good, they changed the meat offered everyday. I was not comfortable parking in the back so I parked in the front. Probably would have been ok since the had a security patrolling the parking. The one and only complaint I have is they do have a laundry area and every time I went to front desk for quarters they never had any. So if you plan on using the washer/dryer bring a roll of quarters with you. This is a very nice hotel for the great price they offer. I will definitely stay here again! Lots of eating places around here.More</t>
   </si>
   <si>
+    <t>Louisiana2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r214474066-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -798,6 +882,9 @@
     <t>Have to be honest., never stayed at a CS before so wasn't sure how this would go.  I am a Hilton person, but wanted to watch the budget on our vacation in Dallas.  For $83 dollars a night, whats not to like?  The room was huge with the two queens and a sofa bed.  Breakfast was GREAT!  It has everything a Hampton Inn has.  Nothing less.  The room was clean (everyday) and you could smell that things were new.  Plus evening munchies if you want.  I am highly impressed, which is not an easy task.  The staff was nice, friendly, and gave me traffic advice numerous times.  Liked our stay so much, I joined membership and Hampton Inn is but a memory.  Right off 30, which seemed to be convenient to Six Flags and various tourist (family) spots.  PLENTY of restaurants near hotel, some you can walk to.  Convenience store right next door (so is the Hampton Inn). I just cant say enough good things.  Once in your room, no traffic sounds.  Again, just a great stay.More</t>
   </si>
   <si>
+    <t>Lasha33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r214394073-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,6 +900,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Fancyceleste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r187614338-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -831,6 +921,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Channon D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r185005394-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -847,6 +940,9 @@
   </si>
   <si>
     <t>November 2013</t>
+  </si>
+  <si>
+    <t>Katerbug411</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r182430037-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -878,6 +974,9 @@
 On the second night we weren't sure if the toilet was working correctly - it didn't seem to flush completely - so I called down to the front desk at 9pm.  I guess maintenance had already left, but the concierge was willing to let me borrow an extra plunger and said he'd send someone in the morning.  We think the issue was that the toilet flushes differently than ours at home - this one you needed to hold the...I went to Dallas last weekend for a girl's weekend with my mom and sister.  We were trying to find a place that wasn't too far from Downtown, not too expensive for our budgets, and we wanted breakfast included.  This was our choice, and we were happy with it.  The hotel is clean, the staff was friendly, and there was a variety for breakfast.  The bed and room was comfortable, and we had a view of downtown from the 3rd floor (room 320, next to the elevator but we NEVER heard ANY noise from the elevator or from other guests).  We didn't use the pool or fitness center.  There is free wi-fi throughout the hotel, and there are two computers in the lobby (the business center) where we printed our boarding passes for 10 cents per page, which was convenient.  The elevator itself is slooooooooow but you're only going two floors so it's kind of a silly thing to complain about.  On the second night we weren't sure if the toilet was working correctly - it didn't seem to flush completely - so I called down to the front desk at 9pm.  I guess maintenance had already left, but the concierge was willing to let me borrow an extra plunger and said he'd send someone in the morning.  We think the issue was that the toilet flushes differently than ours at home - this one you needed to hold the handle down until the water was really high and THEN whoosh...all gone.The hotel is maybe a 10 minute drive on I-30 to get to Downtown (the JFK museum, for example).  There is a Walmart, I-Hop, Chili's, Wendy's, Sonic, KFC/Taco Bell, and a few other places that are within walking distance or nearly so.  There is a gas station immediately outside the hotel - you have to drive through it to get in, a little weird but convenient if you need to fill up.  The hotel breakfast included scrambled eggs, toast, hard boiled eggs, make-your-own-Texas waffles (choice of plain or flavored each day...one day was blueberry, another day strawberry), a few varieties of hot and cold cereals, fruit (bananas, oranges, apples), bagels, a juice dispenser, coffee/hot chocolate/tea.  And then each day had another choice that would change each day (sausage, ham, biscuits and gravy).  We felt like it was a good variety for the money.  Overall, we would probably stay here again on a return trip to Dallas.More</t>
   </si>
   <si>
+    <t>Mrqcace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r181242823-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -902,12 +1001,18 @@
     <t>We stayed one night, Oct. 12th for an Eagles concert.  Hotel is conveniently located just a short ride to the AA center. We had room 208, it was clean and suitable.  Not really any complaints for the hotel.  Breakfast was the usual for this type of hotel, coffee was okay but not great, normal selection of cereal, fruits, breads, etc.  There are several fast-food places right at the hotel.  There is a Golden Corral nearby, and a Chili's along with other retail stores.  We left one of our favorite pillows and called when we got home, they said they had it and would ship but we have not received it yet.  We would stay here again.More</t>
   </si>
   <si>
+    <t>Tonia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r175705518-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
     <t>175705518</t>
   </si>
   <si>
+    <t>brandi h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r163517696-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -926,6 +1031,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Noel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r156144832-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1052,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>John_crudeoil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r154116968-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1076,9 @@
     <t>Good location, about a 15-20 minute drive into downtown Dallas in rush hour, faster other times.Clean facility, good check in with friendly desk clerk who remembered my name through the week. Good mattresses and bedding, slept well. Modern and cheerful decor in lobby and rooms. The heat-A/C unit did not seem to be connected to the wall thermostat. But it worked fine, fairly quiet running. Usual breakfast items. A bonus was the Monday-Weds "happy hour" in the serving area with free snacks and over-21 beverages.Not much parking, but I found places open near the door without trouble. Fast food across the parking lot, Chili's and Golden Corral across I-30, as is a strip shopping mall with a Wal-Mart and a variety of retail. Rooms away from the interstate would be quieter. Rooms 222 and 322 are the largest.More</t>
   </si>
   <si>
+    <t>Kvargas616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r152581720-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1094,9 @@
     <t>We stayed for two nights. The room was a good size as three adults and three children slept comfortably. The hotel is clean, and the service was good. They serve a nice complimentary breakfast. My only complaint is that housekeeping did not clean out room the first day. Perhaps because we left late in the morning.</t>
   </si>
   <si>
+    <t>Connie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r141840891-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1122,9 @@
   </si>
   <si>
     <t>This was a great stay.  THANK YOU TO CINDY and all the other hotel staff.  Staff is so pleasant and makes copies of maps so you can find your way.  Hotel a little over an hour from Oklahoma casino / Win Star.   Sixth Floor Museum about 20 mins downtown.  20 minutes from Cowboy Stadium.  Staying here you get 15% off your bill each time you eat across the highway at Chilis.  Several stores around hotel area.  We had a great experience!  Everyone is so nice.  Hotel affordable, very clean.The beds are very comfortable.Only complaint is pool outdoors and heating element for pool and hot tub were not working.Complimentary breakfast area downstairs is immaculate.  Coffee great!After our stay here we went to san Antonio to a higher starred hotel and we missed our stay at Comfort INN.  THANKS TO THE STAFF AT COMFORT INNMore</t>
+  </si>
+  <si>
+    <t>TopofTXtraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r137392809-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1032,6 +1152,9 @@
 The good side:  Convenient location, newer Comfort Suites design and decor, comfortable beds, above average quick service hotel...Traveled with my family for a single night recently.  When we arrived, there was a large drinking party with loud music going on in the pool area, making it unusable by children and families.  I was told the following morning (by another family with small kids who had been unable to use the pool) that they complained about this the night before to no avail.  Likely the same group were up and slamming doors until about 2 in the morning on our hallway.  The hotel is right next to I-30 and the sounds of motorcycles racing down the freeway early and late transmitted through the walls very efficiently.  And our air conditioner (window unit with wall controls) rattled loudly every time it turned on.  Between all of the above, there was very little sleep to be had.The following morning, the pool area was completely trashed with dozens of Corona bottles floating in the water, laying all over the deck, and broken glass in several areas.  Towels, leftover food, etc. were strewn all of the place, and it smelled strongly of alcohol.  I reported it again to the front desk and housekeeping did come and clean (3 large trash bags full of stuff.)  Also, room key worked fine on room and exterior doors, but wouldn't open pool area -- which was annoying.The good side:  Convenient location, newer Comfort Suites design and decor, comfortable beds, above average quick service hotel hot breakfast, and nice staff that I spoke to about the problems.  I realize the hotel can't control everything about unruly guests, but this was out of hand, and it was an embarrassing mess for far too long with apparently little to no effort to stop it.  That, coupled with the symphony of noises, will keep me from returning to this location.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r136559976-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1173,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>jlmgwm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r130428633-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1194,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Jim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r130067290-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1215,9 @@
     <t>I stay at this Hotel at least 10 nights a year while working in Dallas.  Comfort Hotels are not the swankiest or most modern hotels but they are always clean and have refrigerators and microwaves. When you stay there as long as I do, you appreciate the fact that you don't have to eat out every single night. But just in case you are not too fond of microwave food, there is a KFC, Taco Bell, Ihop, and Chilis within walking distance of the Hotel.This Hotel has a great breakfast in the morning and they even opened up early for us because we all had to be at the Convention Center early.It has a nice 32" flat screen TV and free WiFi. It has an ipod port built into the alarm clock and a desk to work on with lots of outlets and USB ports. The only con that I can think of is the damn elevator. If you are staying on the 3rd floor, you can grow old waiting for this elevator. I almost always took the stairs unless I had a hand full of stuff to take up with me.More</t>
   </si>
   <si>
+    <t>Dave H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r126609215-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1236,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Capnm11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r124183184-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1252,9 @@
   </si>
   <si>
     <t>We decided to stay here based on the good reviews, and the hotel did not disappoint, check in was very quick, and it's a new hotel so everything is new. It's walking distance to an ihop and sonic. Very spacious rooms, complimentary breakfast, the only thing that bothered me was that it had only one elevator which was kind of slow but other than that everything else was great. The bathroom is a good size, there's a sofa bed, Fridge, microwave, ad flat screen tv in every room and the hotel is right off of the freeway.</t>
+  </si>
+  <si>
+    <t>tke_303</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r115054233-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1144,6 +1282,9 @@
 Cannot recall any problem or any fault with this property during...I consider myself to be quite the “Choice Hotels” connoisseur and aficionado. I usually stay at this particular brand of hotels for all of my business traveling needs. First, hotel is very new – maybe between 1-2 years old, but just a guess. Thus, the “newness” of the hotel is apparent and reflected in the quality of the rooms, décor, cleanliness, etc. Rooms are appointed nicely with a suite-type of layout including sitting/living area, desk or office work space, king bed (with comfortable mattress and linens), and very clean bathroom and shower. Very impressed with the rate of $90/night. Location is so-so. Kind of far (for me) from downtown Dallas for meetings or business, but then again travel is a must anywhere in the metroplex. However, there is a great selection of fast-food and sit-down restaurants in the immediate area close to the hotel – so, that helps for dinner plans in the evening. Breakfast was nice, basic “continental” fair, but good enough to eat. No Manager’s or Happy Hour reception, but then again – most Choice Hotels don’t have these now-a-days, so can’t fault them for that. Didn’t see or use the gym or outdoor pool, but I’m sure they are just as nice and new as the rest of the premises. Internet worked great on laptop, but not so much on cell phone - still, very good. Cannot recall any problem or any fault with this property during my stay, and will most definitely be back! Pics are worth a thousand words, so take a look at the attachments from my stay.More</t>
   </si>
   <si>
+    <t>allfacts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r114116533-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1301,9 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>Quiet_Traveler_One</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r112195256-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1190,6 +1334,9 @@
 My first trip to Texas was memorable, if I go back, I'm making a similar...1) I went to Texas, first time, for a special guy's graduation.2) I booked a flight and hotel through one of the online resources,the deal for Comfort Suites was the best, so I chose it.3) I hadn't check the facility online, so I didn't know what I was going to find.What I found was a staff that was professional, cordial, helpful beyond expectations, Dan, the Front Desk clerk assisted me in getting into my room quickly, and printed out the directions I needed to get to the graduaiton. As I quickly learned, Texas is very much about highways and driving,  and the road kindness of Texans greatly surprised  this guy from New Jersey. The room, was, in fact, a suite, and a SWEET one at that. Sofa bed, beautful king size bed,Large flat screen TV, HBO channels, WI-FI, clean bathroom, updated decor,  amenities that bring comfort to the traveler, microwave and large size (clean) fridge, secured away in a nice cabinet,, even a laundry room for guests to use as needed. Let's face it, if I moved to Texas, I'd let this be my home!! Last, checkout was quick and easy, no delays or additional expenditures, I was able to get to the airport early enough to get my tickets and checked in, Thanks to the work of this one facility. My first trip to Texas was memorable, if I go back, I'm making a similar deal for this hotel.More</t>
   </si>
   <si>
+    <t>GoHawksAnkenyIowa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r102076035-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1358,9 @@
     <t>We wanted to stay close to downtown as we were going to a Mavericks game but downtown hotels were pricy so I looked out a little farther and found this one.  Front desk was very helpful in giving directions to downtown which was about 10 minutes away.  The hotel and room was very clean but the only reason why I didn't give it a 5 was that the outdoor pool was very dirty.  There were leaves in it and didn't look like it had been cleaned for awhile.  Hot tub was cold.  Complimentary breakfast in the morning was good and just a walk through the parking lot is a Taco Bell and KFC and Sonic.More</t>
   </si>
   <si>
+    <t>kimcht</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r100878329-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1226,6 +1376,9 @@
     <t>met my grown son in dallas for some vacation time and found this hotel to be great for our needs. big enough for the three of us with a king bed and a full fold out couch. breakfast was great and included, (hubbie and son were especially fond of the texas shaped waffles)right on highway 30 which we took to go both to downtown dallas attractions as well as fort worth attractions. staff was very nice and when we needed something they brought it up right away. everything was very clean as well.</t>
   </si>
   <si>
+    <t>bjwalter555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r98611363-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1244,6 +1397,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>learmanswife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r88520926-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1416,9 @@
   </si>
   <si>
     <t>This is a smaller hotel. It is fairly new. All the rooms have a fold out sleeper sofa, coffee table, flat screen tv, free wifi, coffee, hair dryer, desk, fridge, microwave. There is a breakfast until 9:30 that slightly varies every morning....we enjoyed biscuits and gravy and sausage eggs and biscuits. They also have juice, coffee, hot chocolate, milk, Texas shaped waffles, fruit, bagels, muffins, pastrys, toast. Also Monday - Wednesday there are snacks in the evening. Hotel also has a mini pantry with drinks and various snacks and canned soup to purchase. The area seemed to be newer developed and we felt very safe. Theres any kind of fast food nearby you could want, Ihop, Chilis, Dennys, Starbucks. Theres also a walmart just across the highway.More</t>
+  </si>
+  <si>
+    <t>NurseNancy2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r76707938-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1800,43 +1959,47 @@
       <c r="A2" t="n">
         <v>59266</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>880</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1850,50 +2013,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59266</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125821</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1913,50 +2080,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59266</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>120362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1968,56 +2139,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59266</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125822</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2033,56 +2208,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59266</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125823</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2094,56 +2273,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59266</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125824</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2161,56 +2344,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59266</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125825</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2228,56 +2415,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59266</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125826</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2295,56 +2486,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59266</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>113</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2356,56 +2551,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59266</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125827</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2421,56 +2620,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59266</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125828</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2486,56 +2689,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59266</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>48878</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2547,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -2566,37 +2773,37 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2610,50 +2817,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59266</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125829</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2669,56 +2880,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59266</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125830</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2736,50 +2951,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59266</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125831</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2795,56 +3014,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59266</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>91943</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2856,56 +3079,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59266</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>51716</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>182</v>
       </c>
-      <c r="L19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2921,56 +3148,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59266</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125832</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2988,50 +3219,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59266</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>99703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3047,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59266</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>49234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3110,50 +3349,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59266</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125833</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3167,50 +3410,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59266</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125834</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3228,50 +3475,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59266</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>46989</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3289,50 +3540,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59266</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125835</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3352,50 +3607,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59266</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125836</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3407,56 +3666,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59266</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125837</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3472,56 +3735,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59266</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125838</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3539,56 +3806,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59266</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125839</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3606,56 +3877,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59266</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125840</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3675,50 +3950,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59266</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125841</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3742,50 +4021,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59266</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125842</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3809,50 +4092,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59266</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125843</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3874,56 +4161,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59266</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125844</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3945,38 +4236,42 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59266</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125845</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
@@ -3993,51 +4288,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59266</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125846</v>
+      </c>
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4061,50 +4357,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59266</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>78491</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4128,50 +4428,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59266</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125847</v>
+      </c>
+      <c r="C39" t="s">
+        <v>344</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4195,41 +4499,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59266</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125848</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -4258,50 +4566,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59266</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>9867</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4323,56 +4635,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="X41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59266</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125849</v>
+      </c>
+      <c r="C42" t="s">
+        <v>368</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4396,50 +4712,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59266</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4463,50 +4783,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59266</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125850</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4530,50 +4854,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59266</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>18703</v>
+      </c>
+      <c r="C45" t="s">
+        <v>390</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4597,50 +4925,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59266</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>29372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>397</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="J46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="K46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4664,41 +4996,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59266</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125851</v>
+      </c>
+      <c r="C47" t="s">
+        <v>404</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -4727,50 +5063,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59266</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125852</v>
+      </c>
+      <c r="C48" t="s">
+        <v>410</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4790,50 +5130,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59266</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125853</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4853,50 +5197,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59266</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125854</v>
+      </c>
+      <c r="C50" t="s">
+        <v>425</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4916,50 +5264,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59266</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>29192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -4983,41 +5335,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59266</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125855</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5046,50 +5402,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59266</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125856</v>
+      </c>
+      <c r="C53" t="s">
+        <v>446</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5113,50 +5473,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59266</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125857</v>
+      </c>
+      <c r="C54" t="s">
+        <v>453</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="J54" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5180,50 +5544,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59266</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125858</v>
+      </c>
+      <c r="C55" t="s">
+        <v>460</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="J55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5247,50 +5615,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59266</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125852</v>
+      </c>
+      <c r="C56" t="s">
+        <v>418</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="J56" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="K56" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5314,7 +5686,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_111.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_111.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="569">
   <si>
     <t>STR#</t>
   </si>
@@ -150,10 +150,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Joey C</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r583157027-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -186,9 +183,6 @@
     <t>We just stayed one night there, but were generally happy for the price.  Good service, clean room, good a.c., good location.  Only issues was parking, if they ever get full not sure where everyone will park, and the breakfast bar.  I don't generally expect too much from a free breakfast but this one was bad.  Runny scrambled eggs, some sort of round pork disk ( not sausage) swimming in its own grease (?), and dry biscuits, some cereal, and waffles.  Can comment on quality of waffles ( line to get was too long), but rest was bad and the oj tastes like watered down tang.  We just went across street to ihop.  More</t>
   </si>
   <si>
-    <t>anneman2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r573789230-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Jesse B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r572973036-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>Stayed here for a week while I was here for work. It is a nice and quite hotel with restaurants in walking distance. Quincy worked the desk every night and he was very friendly and spoke to me every time I seen him. More</t>
   </si>
   <si>
-    <t>725golsan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r572041207-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,9 +246,6 @@
     <t>I appreciate the personal attention.  We even had a power outage one night and Quincy informed each person of the reason and then updated any information he received to residents in timely manner.This person certainly presents a face and attitude that sells this property.  We will return.More</t>
   </si>
   <si>
-    <t>Joanne L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r571155040-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,7 +264,127 @@
     <t>Stayed here one night and was very pleased with the hotel.  The receptionist was very chatty and welcoming. Our room was large with two queen beds and also a sofa which a sofa bed if you needed more sleeping accommodation. There is a pool outside however it was too cold to swim when we were there. I imagine it would be great in the summer.The breakfast room was large and well stocked with eggs and bacon as well as the usual cereals, waffles etc.There is a gas station next door and there appeared to be several restaurants (mostly fast food) near by.  It's near a very busy road but we were not disturbed by the noise. More</t>
   </si>
   <si>
-    <t>Davidhasselho</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r568176306-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568176306</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Smooth check in</t>
+  </si>
+  <si>
+    <t>We were here for a bible quizzing event and Choice was able to accommodate our group.  Rooms were comfortable and quiet , which was a pleasant surprise considering this corner is very busy.  The breakfast was well kept and they’re were enough choices for everyone.. my husband was able to get bacon and eggs on our first morning.. waffles were good and coffee was plentiful. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Comfort Suites D, Front Office Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>We were here for a bible quizzing event and Choice was able to accommodate our group.  Rooms were comfortable and quiet , which was a pleasant surprise considering this corner is very busy.  The breakfast was well kept and they’re were enough choices for everyone.. my husband was able to get bacon and eggs on our first morning.. waffles were good and coffee was plentiful. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r560293519-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>560293519</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great stay!!!</t>
+  </si>
+  <si>
+    <t>This place is nice. The room was good only complaint is the bed could be softer but other than that the room was really nice. The bathroom was clean and very nice. The breakfast was ok, could have done eggs without the cheese. There was no sausage or bacon just some dried up ham. No gravy for the biscuits the potatoes were burnt. But the blue berry waffles were good the bagels were good. Over all this hotel is very nice and quite easy to get to and was in a great location for us. Will be staying here again when we come up to visit family. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Comfort Suites D, Front Office Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>This place is nice. The room was good only complaint is the bed could be softer but other than that the room was really nice. The bathroom was clean and very nice. The breakfast was ok, could have done eggs without the cheese. There was no sausage or bacon just some dried up ham. No gravy for the biscuits the potatoes were burnt. But the blue berry waffles were good the bagels were good. Over all this hotel is very nice and quite easy to get to and was in a great location for us. Will be staying here again when we come up to visit family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r543317944-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>543317944</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfection, again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Hotels continues to deliver with the Comfort Suites. I’ve been in hotels costing twice as much that didn’t measure up to these hotels. Everything from the front desk staff, to the shower and fluffy white towels, to the pillows and comfy bed, and the coffee and breakfast was perfect. Great job to all involved. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r520879680-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>520879680</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Clean and Spacious</t>
+  </si>
+  <si>
+    <t>Had a bit of a problem with our GPS as it routed us to a empty lot. The room was clean and spacious and we slept well. Staff was very pleasant during check in. Usual breakfast except for the Texas shaped waffle.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Amber J, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Had a bit of a problem with our GPS as it routed us to a empty lot. The room was clean and spacious and we slept well. Staff was very pleasant during check in. Usual breakfast except for the Texas shaped waffle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r495655394-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>495655394</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever - No Joke</t>
+  </si>
+  <si>
+    <t>This hotel is outstanding. The location is very easy to get to and is right off the interstate, which we didn't hear any noise from. The area was nice with a little bit of construction (still no noise) with plenty of restaurants and a Walmart is right across the street. Everything you might need is super close. There is plenty of parking as well. The inside of the hotel is stupendous. It's clean, well-kept, and smells great! The employees are extremely nice and are always there to help. I stayed in a room with a king-sized bed. They are big, furnished, decorated and roomy. The bathrooms have plenty of space as well. I think we started out with five big towels, four small ones, and four washcloths. Bring a clippy or clothespin to shut the curtains all the way because it is very bright otherwise. There is also a little night-light by the door when you flip the switch, which is very bright, too. I tape one of the card keys up there to block it. Other than that, the room is perfect! This hotel has a high quality breakfast! Everyday they have omelets, boiled eggs, sausage patties, biscuits, toast, bagels, muffins, waffles, oatmeal, tea, coffee, juice, yogurt, fruit, and plenty of condiments to go with. This hotel is exceptional and the price is very affordable. I would recommend this to anyone with no hesitation! MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is outstanding. The location is very easy to get to and is right off the interstate, which we didn't hear any noise from. The area was nice with a little bit of construction (still no noise) with plenty of restaurants and a Walmart is right across the street. Everything you might need is super close. There is plenty of parking as well. The inside of the hotel is stupendous. It's clean, well-kept, and smells great! The employees are extremely nice and are always there to help. I stayed in a room with a king-sized bed. They are big, furnished, decorated and roomy. The bathrooms have plenty of space as well. I think we started out with five big towels, four small ones, and four washcloths. Bring a clippy or clothespin to shut the curtains all the way because it is very bright otherwise. There is also a little night-light by the door when you flip the switch, which is very bright, too. I tape one of the card keys up there to block it. Other than that, the room is perfect! This hotel has a high quality breakfast! Everyday they have omelets, boiled eggs, sausage patties, biscuits, toast, bagels, muffins, waffles, oatmeal, tea, coffee, juice, yogurt, fruit, and plenty of condiments to go with. This hotel is exceptional and the price is very affordable. I would recommend this to anyone with no hesitation! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r494528794-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -309,9 +414,6 @@
     <t>The hotel itself was fine.  Everything you expect from a Comfort Suites.  Breakfast was average, room was nice, clean, and comfortable.  We were here for 2 nights for a softball tournament with the whole team.  The first night one of the parents had their truck stolen from the parking lot of the hotel.  The parking lot is scary anyhow with a gas station sharing the driveway and bums and panhandlers hanging out.  When we arrived in the lobby to check in, there were 2 shady looking guys hanging out with the desk clerk.  The next morning one of our trucks was gone.  The truck was parked directly behind the hotel.  When the police arrived, the security cameras just happened to be off for 45 minutes at the exact time that the truck was stolen.  The truck was on the camera, the camera turned off, and when it came back on the truck was gone.  AMAZING TIMING!!The next night, they had a "security" guard that drove through the parking lot.  I asked if they would be there all night, and was told that they share with other hotels, but they would be back and forth.  I did my own security and checked the parking lot several times during the night.More</t>
   </si>
   <si>
-    <t>ndrsandoval</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r466410885-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -339,9 +441,6 @@
     <t>The young man in the front desk Kaylon ( I believe that's his name) was such a great well spoken person. He made me feel comfortable and welcome. He answered all my questions and was just awesome to work with. The service here is good. Room nice and neatly clean and sanitized. Had more than enough towels. This is my 4th time staying here for different reasons and occasations. Each time is just a good experience for me and the kids. Thanks Comfort Suites.More</t>
   </si>
   <si>
-    <t>texasgirl219</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r446076072-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,9 +468,6 @@
     <t>We only stayed here one night. The hotel itself was fine, our room was clean and quiet. Breakfast was okay, typical of this type of hotel.  The only thing I wasn't thrilled with was the parking arrangements.  We arrived to check in around 11:30pm, after attending a game at AT&amp;T stadium.  Parking was completely full around the perimeter of the hotel, as I drove completely around to double check. Although in reality I wouldn't have parked around back anyway since it was extremely dark and I was alone with my kids. I had to park in front of the adjacent Gas Station. The upside was that it was well lit.  But I wasn't entirely comfortable leaving my car there when it was obvious we would be at the hotel. I felt it pretty points a finger, letting thieves know that if they were to break in, nobody would notice! (Side note, the gas station itself was closed at that time of night so I am not sure if it was good or bad that there wasn't a flow of people coming and going). The price was reasonable comparatively to hotels closer to AT&amp;T, so for that reason I would probably stay here again.More</t>
   </si>
   <si>
-    <t>Randy A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r445011883-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -387,9 +483,6 @@
     <t>Was in town for a high school play off game. I read the reviews and was very pleased with the hotel. It looks really new or renovated. The bathrooms were very neat and clean. It is really convenient to eating places.  Not a lot of road noise even though it is right by the freeway. I'd definitely stay here again. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Jandel G, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded December 20, 2016</t>
   </si>
   <si>
@@ -399,9 +492,6 @@
     <t>Was in town for a high school play off game. I read the reviews and was very pleased with the hotel. It looks really new or renovated. The bathrooms were very neat and clean. It is really convenient to eating places.  Not a lot of road noise even though it is right by the freeway. I'd definitely stay here again. More</t>
   </si>
   <si>
-    <t>goyogonzalez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r444934788-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,7 +510,202 @@
     <t>Leave the room at 11am and tell the office boy .. Please send housekeeping to my room  I will be back at 11pm... oh yes!!! then I returned and what?  my room is a mess. call the office and they told me.  the priority are the new customers...  I payed 3 nights in advance and now I am not the priority?  its not GOOD... its very BAD Service.Just 20 cars spots in the parking lot. I had to park my truck on a gas station!!!!!!More</t>
   </si>
   <si>
-    <t>Ansari009</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r444506505-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>444506505</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Close to Everything</t>
+  </si>
+  <si>
+    <t>This hotel was nice, clean, and near lots of stores and restaurants.  The fitness room could have been better, but everything else was up to par.Breakfast was pretty good and the rooms were fairly large.Was close enough to downtown Dallas for a pretty cheap Uber ride.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was nice, clean, and near lots of stores and restaurants.  The fitness room could have been better, but everything else was up to par.Breakfast was pretty good and the rooms were fairly large.Was close enough to downtown Dallas for a pretty cheap Uber ride.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r434689932-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>434689932</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>false accusations SO NOT COOL..Dont stay here...</t>
+  </si>
+  <si>
+    <t>At check out I was accused of having a dog in my room all week. I was charged $75 for a PET FEE...  I was in town for work.  Both my dogs were at home with pet sitters. When I checked out I was told they had a complaint of a dog in the room by housekeeping and their housekeeper had an allergic reaction to a dog. they said the house head house keeper confirmed there was a dog in my room. I told the manager I never had a dog in my room. They guy I traveled with (who had a different room) confirmed I had no dog. The manager didn't want to listen to anything I had to say. I tried to tell the manager I have 2 dogs at home and sometimes do travel with my dogs so pet dander on my suit case is possible. I also travel with my own comforter which can also have pet dander on it BUT I had no dog. I asked for video proof from their  cameras which has not been provided. Believe me IF i had my dogs with me they would of known. For one thing I dont hide them when I travel. Also my dogs are very social and say hello to people they see. I also couldn't sneak my dog in because 1 is older and would need the elevator instead of stairs No way to...At check out I was accused of having a dog in my room all week. I was charged $75 for a PET FEE...  I was in town for work.  Both my dogs were at home with pet sitters. When I checked out I was told they had a complaint of a dog in the room by housekeeping and their housekeeper had an allergic reaction to a dog. they said the house head house keeper confirmed there was a dog in my room. I told the manager I never had a dog in my room. They guy I traveled with (who had a different room) confirmed I had no dog. The manager didn't want to listen to anything I had to say. I tried to tell the manager I have 2 dogs at home and sometimes do travel with my dogs so pet dander on my suit case is possible. I also travel with my own comforter which can also have pet dander on it BUT I had no dog. I asked for video proof from their  cameras which has not been provided. Believe me IF i had my dogs with me they would of known. For one thing I dont hide them when I travel. Also my dogs are very social and say hello to people they see. I also couldn't sneak my dog in because 1 is older and would need the elevator instead of stairs No way to sneak them in...I asked why I wasn't notified when they discovered I supposedly had a dog and was told we have to do extra cleaning to the room now anyways so it wasn't worth it. I said I had a DND sign on the door and was told they can still go in anytime they want. Oh, that's fine... Only I DIDNT have a dog in the room IF I did they would know because younger dog would of been so happy to see someone he would of jumped on them and probably scratched them. Long story short... I HAD NO DOG with me on this trip.....They can't tell me if they saw a small, medium, or large dog.. what color, what type, etc. they cannot provide proof... Why??? Because I never had a dog in my room. If there was one they had the wrong room! false accusations SO NOT COOL..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>At check out I was accused of having a dog in my room all week. I was charged $75 for a PET FEE...  I was in town for work.  Both my dogs were at home with pet sitters. When I checked out I was told they had a complaint of a dog in the room by housekeeping and their housekeeper had an allergic reaction to a dog. they said the house head house keeper confirmed there was a dog in my room. I told the manager I never had a dog in my room. They guy I traveled with (who had a different room) confirmed I had no dog. The manager didn't want to listen to anything I had to say. I tried to tell the manager I have 2 dogs at home and sometimes do travel with my dogs so pet dander on my suit case is possible. I also travel with my own comforter which can also have pet dander on it BUT I had no dog. I asked for video proof from their  cameras which has not been provided. Believe me IF i had my dogs with me they would of known. For one thing I dont hide them when I travel. Also my dogs are very social and say hello to people they see. I also couldn't sneak my dog in because 1 is older and would need the elevator instead of stairs No way to...At check out I was accused of having a dog in my room all week. I was charged $75 for a PET FEE...  I was in town for work.  Both my dogs were at home with pet sitters. When I checked out I was told they had a complaint of a dog in the room by housekeeping and their housekeeper had an allergic reaction to a dog. they said the house head house keeper confirmed there was a dog in my room. I told the manager I never had a dog in my room. They guy I traveled with (who had a different room) confirmed I had no dog. The manager didn't want to listen to anything I had to say. I tried to tell the manager I have 2 dogs at home and sometimes do travel with my dogs so pet dander on my suit case is possible. I also travel with my own comforter which can also have pet dander on it BUT I had no dog. I asked for video proof from their  cameras which has not been provided. Believe me IF i had my dogs with me they would of known. For one thing I dont hide them when I travel. Also my dogs are very social and say hello to people they see. I also couldn't sneak my dog in because 1 is older and would need the elevator instead of stairs No way to sneak them in...I asked why I wasn't notified when they discovered I supposedly had a dog and was told we have to do extra cleaning to the room now anyways so it wasn't worth it. I said I had a DND sign on the door and was told they can still go in anytime they want. Oh, that's fine... Only I DIDNT have a dog in the room IF I did they would know because younger dog would of been so happy to see someone he would of jumped on them and probably scratched them. Long story short... I HAD NO DOG with me on this trip.....They can't tell me if they saw a small, medium, or large dog.. what color, what type, etc. they cannot provide proof... Why??? Because I never had a dog in my room. If there was one they had the wrong room! false accusations SO NOT COOL..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r427453990-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>427453990</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>We will be back</t>
+  </si>
+  <si>
+    <t>This is one of the nicest rooms we have stayed in. Nice and clean. The staff could not have been nicer or more accommodating. They even had a little happy hour before dinner. Convenient to the interstate, Wal-mart and restaurants. Very nice.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r424526174-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>424526174</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>The Slogan Expect More from Us is a joke</t>
+  </si>
+  <si>
+    <t>This place is okay. I'm usually black or white when I do reviews; meaning there's no in between. My family and I stayed here for 2 nights this past weekend because we were attending the Southwest Airlines State Fair Classic (PVAMU vs GRAMU). Upon checking in Friday night, the crabby old black guy who was a Mgr btw wasn't pleasant at all which is contradictory to there slogan, "Expect more from us". The look on his face was as if we were bothering him by checking in. Substandard customer service is unacceptable especially from management. When I initially made the reservation on Choicehotels.com I requested that extra towels be added to the room so that we wouldn't have to go back answer forth to request them. The online request was never honored. We were initially placed upstairs on the 2nd floor in room 230 or something like that. The A/C didn't work like it should, there were juice stains throughout the room on the carpet, and the water in the shower and sink stunk. They have thermostats on the walls, but none of them are operable. You have to use the dials on the window A/C. When I called at 3 am to make mention of this. No one answered. My guy stated that I should wait until the morning. When I called again at 0845 "Nielly"  one of the clerks stated that the hotel was booked and I'd have...This place is okay. I'm usually black or white when I do reviews; meaning there's no in between. My family and I stayed here for 2 nights this past weekend because we were attending the Southwest Airlines State Fair Classic (PVAMU vs GRAMU). Upon checking in Friday night, the crabby old black guy who was a Mgr btw wasn't pleasant at all which is contradictory to there slogan, "Expect more from us". The look on his face was as if we were bothering him by checking in. Substandard customer service is unacceptable especially from management. When I initially made the reservation on Choicehotels.com I requested that extra towels be added to the room so that we wouldn't have to go back answer forth to request them. The online request was never honored. We were initially placed upstairs on the 2nd floor in room 230 or something like that. The A/C didn't work like it should, there were juice stains throughout the room on the carpet, and the water in the shower and sink stunk. They have thermostats on the walls, but none of them are operable. You have to use the dials on the window A/C. When I called at 3 am to make mention of this. No one answered. My guy stated that I should wait until the morning. When I called again at 0845 "Nielly"  one of the clerks stated that the hotel was booked and I'd have to wait for housekeeping to clean another room. After waiting several hours she mentioned there was still no rooms available. When I asked for the Mgr (whom she stayed didn't work on weekends) I then mentioned that knowing his name would suffice so that I could have it once I began writing my reviews and contact the corporate office on Monday. Ironically, a clean room became available almost instantly on the 1st floor (rm 118). Although the A/C worked the room stunk as if it hadn't been cleaned in decades. Although the clerk gave me air freshener to spray the room still stunk. On the upside, the breakfast was good. Only suggestion for those of us that don't eat pork bacon there should be turkey sausage or something......Thanks to Nielly for attempting to accommodate us.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jandel G, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>This place is okay. I'm usually black or white when I do reviews; meaning there's no in between. My family and I stayed here for 2 nights this past weekend because we were attending the Southwest Airlines State Fair Classic (PVAMU vs GRAMU). Upon checking in Friday night, the crabby old black guy who was a Mgr btw wasn't pleasant at all which is contradictory to there slogan, "Expect more from us". The look on his face was as if we were bothering him by checking in. Substandard customer service is unacceptable especially from management. When I initially made the reservation on Choicehotels.com I requested that extra towels be added to the room so that we wouldn't have to go back answer forth to request them. The online request was never honored. We were initially placed upstairs on the 2nd floor in room 230 or something like that. The A/C didn't work like it should, there were juice stains throughout the room on the carpet, and the water in the shower and sink stunk. They have thermostats on the walls, but none of them are operable. You have to use the dials on the window A/C. When I called at 3 am to make mention of this. No one answered. My guy stated that I should wait until the morning. When I called again at 0845 "Nielly"  one of the clerks stated that the hotel was booked and I'd have...This place is okay. I'm usually black or white when I do reviews; meaning there's no in between. My family and I stayed here for 2 nights this past weekend because we were attending the Southwest Airlines State Fair Classic (PVAMU vs GRAMU). Upon checking in Friday night, the crabby old black guy who was a Mgr btw wasn't pleasant at all which is contradictory to there slogan, "Expect more from us". The look on his face was as if we were bothering him by checking in. Substandard customer service is unacceptable especially from management. When I initially made the reservation on Choicehotels.com I requested that extra towels be added to the room so that we wouldn't have to go back answer forth to request them. The online request was never honored. We were initially placed upstairs on the 2nd floor in room 230 or something like that. The A/C didn't work like it should, there were juice stains throughout the room on the carpet, and the water in the shower and sink stunk. They have thermostats on the walls, but none of them are operable. You have to use the dials on the window A/C. When I called at 3 am to make mention of this. No one answered. My guy stated that I should wait until the morning. When I called again at 0845 "Nielly"  one of the clerks stated that the hotel was booked and I'd have to wait for housekeeping to clean another room. After waiting several hours she mentioned there was still no rooms available. When I asked for the Mgr (whom she stayed didn't work on weekends) I then mentioned that knowing his name would suffice so that I could have it once I began writing my reviews and contact the corporate office on Monday. Ironically, a clean room became available almost instantly on the 1st floor (rm 118). Although the A/C worked the room stunk as if it hadn't been cleaned in decades. Although the clerk gave me air freshener to spray the room still stunk. On the upside, the breakfast was good. Only suggestion for those of us that don't eat pork bacon there should be turkey sausage or something......Thanks to Nielly for attempting to accommodate us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r418646973-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>418646973</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>We stayed here for two days this past weekend. There is construction going on nearby, but that didn't affect much. The lobby was clean, the front desk staff was very friendly and helpful. The breakfast was simple but good. Our room was spacious and clean. I talked to the cleaning staff, who were always smiling. I really have nothing negative to say about this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jandel G, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two days this past weekend. There is construction going on nearby, but that didn't affect much. The lobby was clean, the front desk staff was very friendly and helpful. The breakfast was simple but good. Our room was spacious and clean. I talked to the cleaning staff, who were always smiling. I really have nothing negative to say about this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r414545051-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>414545051</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Good location,  great stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was easily accessible.  Friendly staff. Rooms are spacious and clean. Rates were decent. Location was perfect,  we went to Six Flags and Rangers game didn't want to stay super close to that congested area. This hotel is perfect for that. Still close enough to everything! Would definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r404933325-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>404933325</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. Convenient location 10-15 min from Dallas LOVE Field. Friendly staff. Large rooms. Seems new. Top shelf!! Starbucks, WalMart, IHOP, Pollo Campero, several fast food places across road. Highly recommend. Good AARP discount. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r368160255-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>368160255</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>GREAT VALUE AND LOCATION</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was super-friendly. Check in was fast. The lobby was bright and welcoming. The room was well appointed, quiet and comfortable. Located next to a gas station, Taco Bell, KFC and Sonic -- all within safe walking distance (less than one block). The free breakfast was great. Pre-made cheese omelets and various meats as well as waffles, muffins, yogurt, fruit, cereal etc. A step above most "free" breakfasts. Easy on/off access to I-30. Will definitely use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Jandel G, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was super-friendly. Check in was fast. The lobby was bright and welcoming. The room was well appointed, quiet and comfortable. Located next to a gas station, Taco Bell, KFC and Sonic -- all within safe walking distance (less than one block). The free breakfast was great. Pre-made cheese omelets and various meats as well as waffles, muffins, yogurt, fruit, cereal etc. A step above most "free" breakfasts. Easy on/off access to I-30. Will definitely use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r366536610-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>366536610</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>My boyfriend and I are currently traveling and needed a night only. When I walked in, the staff was very friendly and the place was very nice. Everything was amazing, the rooms were comfortable and even though they've been open for a few years, I couldn't tell. Everything looked brand new. I will definitely be booking with them again &amp; if you're on a budget and want to stay at an amazing hotel, I definitely recommend this one. Plus, everything is within less than a mile away. Restaurants, gas station, Walmart. I loved my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r361649549-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>361649549</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Helpful and friendly staff. Free wifi was a bonus. The rooms were clean and tidy with a mini fridge and microwave. Only a $20 cab fare to Dallas downtown. I would definitely stay again. Beau our cab driver was extremely helpful.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r354601883-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -450,9 +735,6 @@
     <t>Frankly speaking, I Loved this hotel. Location wasn't that good but the Hotel itself is lovely. It was different from other choice hotel properties in regards to the size of the hotel. The room was pretty good and the reception area was clean and different to usual 3* hotels. Wanted to use pool but it was close. Better luck next time. I would recommend other travelers to stay at this Comfort Suite.Thank YouRegardsHamza AnsariMore</t>
   </si>
   <si>
-    <t>Joel H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r354560375-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,9 +771,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Alysen G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r332514966-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -522,9 +801,6 @@
     <t>Staff was friendly. I came into town to celebrate a birthday with a few friends and we all did enjoy our stay. The breakfast was delicious! The only negative thing I have to say is there were dead crickets on the side of my bed. I dropped an earring and when I finally thought that I had found it I picked a cricket instead. The room was very very clean besides that. We will definitely be back.More</t>
   </si>
   <si>
-    <t>TomCaine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r322639068-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,9 +822,6 @@
     <t>Terrible stay, paid for a suite, got a crappy, smelly room with a wet floor/carpet, the smell was so bad that we had to sleep with the window open - directly to the highway with traffic and emergency vehicle noise all night long, got sick in the process, went home sick, was sick for two weeks afterwards. Litter strewn parking lot and property with all kinds of "folks" hanging out drinking and smoking god knows what. Complete carelessness paid to the free breakfast, microwave slop that's comparable to cellblock fodder. Even the simplest of things like requesting extra towels hadd to be done 3+ times before receiving them. Staff treated us like we were servants when we brought the issues to their attention, shrugging it off as it none of it was their responsibility, when finally contacted by the management over a day later, we were offered 30% refund for our trouble, then were reimbursed only 10% when all was said and done.More</t>
   </si>
   <si>
-    <t>traveler-pair</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r312893783-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -576,9 +849,6 @@
     <t>Our room was clean, very comfortable , good beds and linens good service and good business center and breakfast was good.we will  stay here again every chance we get. the rooms had a microfridge and coffee pot, firm pillows or soft pillows both in the rooms very nice bathroom with blow dryers that work well.More</t>
   </si>
   <si>
-    <t>Jaime G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r312088696-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,9 +873,6 @@
     <t>High ceilings and immaculate rooms is what you'll get when you book here. My only complaints are that they need to work on those pool and wifi service. The breakfast area had a spread of many favorites for those traveling on a budget (One less meal to buy). We stayed in the first floor and noise was not a factor. Hotel was full. More</t>
   </si>
   <si>
-    <t>BamaTammie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r307984024-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -630,9 +897,6 @@
     <t>Great location, friendly staff, quick check in, free wi-fi.  The room was clean and spacious! Located near restaurants, gas stations and a Walmart! Close drive to the airport (Love Field) and located close to 6 flags and AT&amp;T Stadium (about 15 minutes away). I will definitely stay here again!More</t>
   </si>
   <si>
-    <t>Kgardner120</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r291600637-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,9 +918,6 @@
     <t>The Comfort Suites was very clean, friendly reception, and nicely decorated.  My husband and I were very concerned about the noise due to the closeness of Interstate 30, but we were pleasantly surprised.  It was very quiet, we heard no road noise and slept very peacefully.  The bed was comfortable, the sheets were nice.  The only reason I didn't give this hotel a 5 rating was because our room appeared to have not been completed by the maid.  The pillows were on the sofa bed, and the overlay of the bed was as well.  The bed was made and the room was very clean, it just looked as if she was called away and forgot to return.  I didn't have a chance nor feel the desire to bring it to management attention, like I said, the room was very clean and so BIG.  We were very happy with our stay here. Breakfast was typical of this hotel chain, with the exception of Texas shaped waffles. How fun!  Recommend this hotel!More</t>
   </si>
   <si>
-    <t>Ethan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r278773033-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,9 +939,6 @@
     <t>One of the best Comfort Suites I have stayed in and I am a big fan of Comfort Suites. Booked 8 rooms with the Manager Jandel and she took care of everything.  Even check with me the week of arrival to make sure she had everything correct.  Check-in and check-out was very easy and everyone we dealt with was top notch.  Had a late night meeting in the lobby area and the attendant on duty brought us water and fruit bars when the meeting went long.  Just little things that made the stay enjoyable.  Rooms were very clean, updated and comfortable.  Just a very pleasant stay.More</t>
   </si>
   <si>
-    <t>Ariesgurl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r277321076-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -699,9 +957,6 @@
     <t>I stayed here one. Check in was smooth, the staff was friendly and the rooms were clean. We had 3 rooms. The hotel is really quite and the place was packed with kids. The location was great. It seems s little isolated but it was close to major eateries and a walmart. There a lot of stuff within walking distance. Breakfast was ok. I didnt like the factory frozen round egg patty but the sausages and blueberry waffles were good. I don't care the way their AC units work. At both of the comfort suites the AC units stay on fan and that takes away from how cold the room can really get. Overall i would stay again.More</t>
   </si>
   <si>
-    <t>thesandbee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r257625715-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,9 +975,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Sam2050</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r250489617-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -741,9 +993,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Erica W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r247637780-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -762,9 +1011,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>828TJA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r245115235-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -783,9 +1029,6 @@
     <t>This hotel sits at the intersection of I-30 and Cockrell Hill Road, so getting here is easy because you can see it from the freeway.  However, oddly, it sits behind a Shell station that a person must drive through to get there, or else drive way around by the Sonic restaurant or the hotel next door.  Altogether there are several restaurants nearby, including the restaurants in the mall across Cockrell Hill Road, and a bunch more on the opposite side of the freeway.The rooms are spacious and clean.  Staff is friendly and helpful.  Internet service is free and good.  The outdoor pool is closed except during the warm season.  The small exercise room has three pieces of equipment.The breakfast is complete with eggs, meat, Texas-shaped waffles, cereal, and the other usual items.  It appears that the desk clerk does double duty setting up the food, so every morning something wasn't ready when breakfast began.  One morning no forks, two mornings no yogurt, another morning no meat for 20 minutes, once no syrup, etc.  This happened at every one of the six breakfasts we ate there.  They need more staff.One thing we truly appreciated at breakfast: The TV usually was off instead of blaring out at the people trying to eat.  Even when it was on it wasn't loud.  Blessings to the staff!  We wish more hotels were that considerate.More</t>
   </si>
   <si>
-    <t>Nicole_Shreveport</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r217463514-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -813,9 +1056,6 @@
     <t>We stayed here last night and it's turned out to be a nightmare! The lady tried to say our card didn't go through and she would need to run it again. I never questioned it but gave her my card and let her run it again. As we were waiting for our keys I signed into my regions account and sure enough was charged twice. They have refused to correct this or comp us in ANY way. Said it would take a few days to sort itself out. Now with us th s t-shirt an issue because we were on a tight budget. They don't care and the manager said nothing she can do-her words exactly. Don't stay here. It's not worth it.More</t>
   </si>
   <si>
-    <t>Eurokatie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r217016068-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -834,9 +1074,6 @@
     <t>This hotel was ok for me. It was clean and the interior was update but showing small signs of wear. Being right next to a gas station/Sonic was interesting but didn't seem to be too distracting once inside. It was close to downtown area and decent for the price. The staff were what really made this hotel stand out. They were excellent.More</t>
   </si>
   <si>
-    <t>roshop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r215710345-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -861,9 +1098,6 @@
     <t>We stayed due to World Series. Everything was excellent, rooms were cleaned everyday. Staff was friendly and help with any directions needed even offered to print out if I wanted. Breakfast was good, they changed the meat offered everyday. I was not comfortable parking in the back so I parked in the front. Probably would have been ok since the had a security patrolling the parking. The one and only complaint I have is they do have a laundry area and every time I went to front desk for quarters they never had any. So if you plan on using the washer/dryer bring a roll of quarters with you. This is a very nice hotel for the great price they offer. I will definitely stay here again! Lots of eating places around here.More</t>
   </si>
   <si>
-    <t>Louisiana2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r214474066-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -882,9 +1116,6 @@
     <t>Have to be honest., never stayed at a CS before so wasn't sure how this would go.  I am a Hilton person, but wanted to watch the budget on our vacation in Dallas.  For $83 dollars a night, whats not to like?  The room was huge with the two queens and a sofa bed.  Breakfast was GREAT!  It has everything a Hampton Inn has.  Nothing less.  The room was clean (everyday) and you could smell that things were new.  Plus evening munchies if you want.  I am highly impressed, which is not an easy task.  The staff was nice, friendly, and gave me traffic advice numerous times.  Liked our stay so much, I joined membership and Hampton Inn is but a memory.  Right off 30, which seemed to be convenient to Six Flags and various tourist (family) spots.  PLENTY of restaurants near hotel, some you can walk to.  Convenience store right next door (so is the Hampton Inn). I just cant say enough good things.  Once in your room, no traffic sounds.  Again, just a great stay.More</t>
   </si>
   <si>
-    <t>Lasha33</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r214394073-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -900,7 +1131,97 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Fancyceleste</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r210499170-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>210499170</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Very nice staff!</t>
+  </si>
+  <si>
+    <t>The staff was very nice and friendly.  The hotel is very close to shopping and places to eat.  Great access to I-30 and minutes to Downtown Dallas. Took us 9 minutes to drive to Elm Street to see the sight of JFK's assassination.  We didn't feel comfortable parking our car out along the back-side of the hotel (lots of theft warning signs), so we parked out front under a light.  There were security cars patrolling the area.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r199517830-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>199517830</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Good value, Great location</t>
+  </si>
+  <si>
+    <t>Stayed here several times while working on a project local to this hotel. Staff was always friendly and efficient, rooms were always nice and clean, air conditioner always worked. Never ate breakfast there so can't speak to that.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r193655336-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>193655336</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Overnight flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great shuttle, very nice room, hot breakfast! Room is large with separate sitting  area with TV and Fold out couch. Close to Dallas Airport! Balcony. Not the usual hotel room! Very nice! Got in at 11 pm- shuttle to airport runs every hour and on time! Just call when you land to let them know you ate there!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r190274858-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>190274858</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel seems to be pretty new.  The staff is great and then evening reception is a very nice touch for a Comfort Suites.  The location is pretty good, with several restaurants and shopping nearby.  The shopping isn't upscale, but you can pick up necessities if needed.  This hotel is a little hard to find if you are using GPS.  My iphone GPS took me a couple of miles away and I had to call the hotel to find it.  The room was nice and clean.  I'd stay here again if I can find it again!LOLMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>ComfortSuitesDallas, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>This hotel seems to be pretty new.  The staff is great and then evening reception is a very nice touch for a Comfort Suites.  The location is pretty good, with several restaurants and shopping nearby.  The shopping isn't upscale, but you can pick up necessities if needed.  This hotel is a little hard to find if you are using GPS.  My iphone GPS took me a couple of miles away and I had to call the hotel to find it.  The room was nice and clean.  I'd stay here again if I can find it again!LOLMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r189089234-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>189089234</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Hotel location great.</t>
+  </si>
+  <si>
+    <t>The hotel was pretty clean, but I asked the front desk for more towels and the front desk clerk asked me to come down to get the towels myself. When I got downstairs...he was playing games on his gane device.  In addition, I could hear children running and bumping until about 11 p.m.  The rooms could have been a lttle more roomier.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r187614338-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -921,9 +1242,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Channon D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r185005394-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -940,9 +1258,6 @@
   </si>
   <si>
     <t>November 2013</t>
-  </si>
-  <si>
-    <t>Katerbug411</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r182430037-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -974,9 +1289,6 @@
 On the second night we weren't sure if the toilet was working correctly - it didn't seem to flush completely - so I called down to the front desk at 9pm.  I guess maintenance had already left, but the concierge was willing to let me borrow an extra plunger and said he'd send someone in the morning.  We think the issue was that the toilet flushes differently than ours at home - this one you needed to hold the...I went to Dallas last weekend for a girl's weekend with my mom and sister.  We were trying to find a place that wasn't too far from Downtown, not too expensive for our budgets, and we wanted breakfast included.  This was our choice, and we were happy with it.  The hotel is clean, the staff was friendly, and there was a variety for breakfast.  The bed and room was comfortable, and we had a view of downtown from the 3rd floor (room 320, next to the elevator but we NEVER heard ANY noise from the elevator or from other guests).  We didn't use the pool or fitness center.  There is free wi-fi throughout the hotel, and there are two computers in the lobby (the business center) where we printed our boarding passes for 10 cents per page, which was convenient.  The elevator itself is slooooooooow but you're only going two floors so it's kind of a silly thing to complain about.  On the second night we weren't sure if the toilet was working correctly - it didn't seem to flush completely - so I called down to the front desk at 9pm.  I guess maintenance had already left, but the concierge was willing to let me borrow an extra plunger and said he'd send someone in the morning.  We think the issue was that the toilet flushes differently than ours at home - this one you needed to hold the handle down until the water was really high and THEN whoosh...all gone.The hotel is maybe a 10 minute drive on I-30 to get to Downtown (the JFK museum, for example).  There is a Walmart, I-Hop, Chili's, Wendy's, Sonic, KFC/Taco Bell, and a few other places that are within walking distance or nearly so.  There is a gas station immediately outside the hotel - you have to drive through it to get in, a little weird but convenient if you need to fill up.  The hotel breakfast included scrambled eggs, toast, hard boiled eggs, make-your-own-Texas waffles (choice of plain or flavored each day...one day was blueberry, another day strawberry), a few varieties of hot and cold cereals, fruit (bananas, oranges, apples), bagels, a juice dispenser, coffee/hot chocolate/tea.  And then each day had another choice that would change each day (sausage, ham, biscuits and gravy).  We felt like it was a good variety for the money.  Overall, we would probably stay here again on a return trip to Dallas.More</t>
   </si>
   <si>
-    <t>Mrqcace</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r181242823-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1001,16 +1313,28 @@
     <t>We stayed one night, Oct. 12th for an Eagles concert.  Hotel is conveniently located just a short ride to the AA center. We had room 208, it was clean and suitable.  Not really any complaints for the hotel.  Breakfast was the usual for this type of hotel, coffee was okay but not great, normal selection of cereal, fruits, breads, etc.  There are several fast-food places right at the hotel.  There is a Golden Corral nearby, and a Chili's along with other retail stores.  We left one of our favorite pillows and called when we got home, they said they had it and would ship but we have not received it yet.  We would stay here again.More</t>
   </si>
   <si>
-    <t>Tonia J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r175705518-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
     <t>175705518</t>
   </si>
   <si>
-    <t>brandi h</t>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Pretty Good</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. Hotel staff pleasant. My only complaint is the ants in the restoorm. My sister also has ants in her restroom (diffent room). When I called the front desk to report this I was offered another room. After being on the road for 23 hours I was not fit to change rooms, the next morning when I asked about someone to come to see about this I was told there was only one housekeeper on duty and she was doing breakfast. I asked if they has pesticide if so I would come and get it and spray the room myself. Before I could do that I got a call saying the matainece man would come which he did however I had ants my entire stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>ComfortSuitesDallas, General Manager at Comfort Suites West Dallas - Cockrell Hill, responded to this reviewResponded September 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2013</t>
+  </si>
+  <si>
+    <t>The room was very nice and clean. Hotel staff pleasant. My only complaint is the ants in the restoorm. My sister also has ants in her restroom (diffent room). When I called the front desk to report this I was offered another room. After being on the road for 23 hours I was not fit to change rooms, the next morning when I asked about someone to come to see about this I was told there was only one housekeeper on duty and she was doing breakfast. I asked if they has pesticide if so I would come and get it and spray the room myself. Before I could do that I got a call saying the matainece man would come which he did however I had ants my entire stay there.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r163517696-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1031,9 +1355,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Noel H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r156144832-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1052,9 +1373,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>John_crudeoil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r154116968-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1076,9 +1394,6 @@
     <t>Good location, about a 15-20 minute drive into downtown Dallas in rush hour, faster other times.Clean facility, good check in with friendly desk clerk who remembered my name through the week. Good mattresses and bedding, slept well. Modern and cheerful decor in lobby and rooms. The heat-A/C unit did not seem to be connected to the wall thermostat. But it worked fine, fairly quiet running. Usual breakfast items. A bonus was the Monday-Weds "happy hour" in the serving area with free snacks and over-21 beverages.Not much parking, but I found places open near the door without trouble. Fast food across the parking lot, Chili's and Golden Corral across I-30, as is a strip shopping mall with a Wal-Mart and a variety of retail. Rooms away from the interstate would be quieter. Rooms 222 and 322 are the largest.More</t>
   </si>
   <si>
-    <t>Kvargas616</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r152581720-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1094,9 +1409,6 @@
     <t>We stayed for two nights. The room was a good size as three adults and three children slept comfortably. The hotel is clean, and the service was good. They serve a nice complimentary breakfast. My only complaint is that housekeeping did not clean out room the first day. Perhaps because we left late in the morning.</t>
   </si>
   <si>
-    <t>Connie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r141840891-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1122,9 +1434,6 @@
   </si>
   <si>
     <t>This was a great stay.  THANK YOU TO CINDY and all the other hotel staff.  Staff is so pleasant and makes copies of maps so you can find your way.  Hotel a little over an hour from Oklahoma casino / Win Star.   Sixth Floor Museum about 20 mins downtown.  20 minutes from Cowboy Stadium.  Staying here you get 15% off your bill each time you eat across the highway at Chilis.  Several stores around hotel area.  We had a great experience!  Everyone is so nice.  Hotel affordable, very clean.The beds are very comfortable.Only complaint is pool outdoors and heating element for pool and hot tub were not working.Complimentary breakfast area downstairs is immaculate.  Coffee great!After our stay here we went to san Antonio to a higher starred hotel and we missed our stay at Comfort INN.  THANKS TO THE STAFF AT COMFORT INNMore</t>
-  </si>
-  <si>
-    <t>TopofTXtraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r137392809-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1152,9 +1461,6 @@
 The good side:  Convenient location, newer Comfort Suites design and decor, comfortable beds, above average quick service hotel...Traveled with my family for a single night recently.  When we arrived, there was a large drinking party with loud music going on in the pool area, making it unusable by children and families.  I was told the following morning (by another family with small kids who had been unable to use the pool) that they complained about this the night before to no avail.  Likely the same group were up and slamming doors until about 2 in the morning on our hallway.  The hotel is right next to I-30 and the sounds of motorcycles racing down the freeway early and late transmitted through the walls very efficiently.  And our air conditioner (window unit with wall controls) rattled loudly every time it turned on.  Between all of the above, there was very little sleep to be had.The following morning, the pool area was completely trashed with dozens of Corona bottles floating in the water, laying all over the deck, and broken glass in several areas.  Towels, leftover food, etc. were strewn all of the place, and it smelled strongly of alcohol.  I reported it again to the front desk and housekeeping did come and clean (3 large trash bags full of stuff.)  Also, room key worked fine on room and exterior doors, but wouldn't open pool area -- which was annoying.The good side:  Convenient location, newer Comfort Suites design and decor, comfortable beds, above average quick service hotel hot breakfast, and nice staff that I spoke to about the problems.  I realize the hotel can't control everything about unruly guests, but this was out of hand, and it was an embarrassing mess for far too long with apparently little to no effort to stop it.  That, coupled with the symphony of noises, will keep me from returning to this location.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r136559976-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1479,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>jlmgwm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r130428633-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1497,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>Jim B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r130067290-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1215,9 +1515,6 @@
     <t>I stay at this Hotel at least 10 nights a year while working in Dallas.  Comfort Hotels are not the swankiest or most modern hotels but they are always clean and have refrigerators and microwaves. When you stay there as long as I do, you appreciate the fact that you don't have to eat out every single night. But just in case you are not too fond of microwave food, there is a KFC, Taco Bell, Ihop, and Chilis within walking distance of the Hotel.This Hotel has a great breakfast in the morning and they even opened up early for us because we all had to be at the Convention Center early.It has a nice 32" flat screen TV and free WiFi. It has an ipod port built into the alarm clock and a desk to work on with lots of outlets and USB ports. The only con that I can think of is the damn elevator. If you are staying on the 3rd floor, you can grow old waiting for this elevator. I almost always took the stairs unless I had a hand full of stuff to take up with me.More</t>
   </si>
   <si>
-    <t>Dave H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r126609215-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +1533,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>Capnm11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r124183184-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1252,9 +1546,6 @@
   </si>
   <si>
     <t>We decided to stay here based on the good reviews, and the hotel did not disappoint, check in was very quick, and it's a new hotel so everything is new. It's walking distance to an ihop and sonic. Very spacious rooms, complimentary breakfast, the only thing that bothered me was that it had only one elevator which was kind of slow but other than that everything else was great. The bathroom is a good size, there's a sofa bed, Fridge, microwave, ad flat screen tv in every room and the hotel is right off of the freeway.</t>
-  </si>
-  <si>
-    <t>tke_303</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r115054233-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1282,9 +1573,6 @@
 Cannot recall any problem or any fault with this property during...I consider myself to be quite the “Choice Hotels” connoisseur and aficionado. I usually stay at this particular brand of hotels for all of my business traveling needs. First, hotel is very new – maybe between 1-2 years old, but just a guess. Thus, the “newness” of the hotel is apparent and reflected in the quality of the rooms, décor, cleanliness, etc. Rooms are appointed nicely with a suite-type of layout including sitting/living area, desk or office work space, king bed (with comfortable mattress and linens), and very clean bathroom and shower. Very impressed with the rate of $90/night. Location is so-so. Kind of far (for me) from downtown Dallas for meetings or business, but then again travel is a must anywhere in the metroplex. However, there is a great selection of fast-food and sit-down restaurants in the immediate area close to the hotel – so, that helps for dinner plans in the evening. Breakfast was nice, basic “continental” fair, but good enough to eat. No Manager’s or Happy Hour reception, but then again – most Choice Hotels don’t have these now-a-days, so can’t fault them for that. Didn’t see or use the gym or outdoor pool, but I’m sure they are just as nice and new as the rest of the premises. Internet worked great on laptop, but not so much on cell phone - still, very good. Cannot recall any problem or any fault with this property during my stay, and will most definitely be back! Pics are worth a thousand words, so take a look at the attachments from my stay.More</t>
   </si>
   <si>
-    <t>allfacts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r114116533-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1301,9 +1589,6 @@
   </si>
   <si>
     <t>May 2011</t>
-  </si>
-  <si>
-    <t>Quiet_Traveler_One</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r112195256-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
@@ -1334,9 +1619,6 @@
 My first trip to Texas was memorable, if I go back, I'm making a similar...1) I went to Texas, first time, for a special guy's graduation.2) I booked a flight and hotel through one of the online resources,the deal for Comfort Suites was the best, so I chose it.3) I hadn't check the facility online, so I didn't know what I was going to find.What I found was a staff that was professional, cordial, helpful beyond expectations, Dan, the Front Desk clerk assisted me in getting into my room quickly, and printed out the directions I needed to get to the graduaiton. As I quickly learned, Texas is very much about highways and driving,  and the road kindness of Texans greatly surprised  this guy from New Jersey. The room, was, in fact, a suite, and a SWEET one at that. Sofa bed, beautful king size bed,Large flat screen TV, HBO channels, WI-FI, clean bathroom, updated decor,  amenities that bring comfort to the traveler, microwave and large size (clean) fridge, secured away in a nice cabinet,, even a laundry room for guests to use as needed. Let's face it, if I moved to Texas, I'd let this be my home!! Last, checkout was quick and easy, no delays or additional expenditures, I was able to get to the airport early enough to get my tickets and checked in, Thanks to the work of this one facility. My first trip to Texas was memorable, if I go back, I'm making a similar deal for this hotel.More</t>
   </si>
   <si>
-    <t>GoHawksAnkenyIowa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r102076035-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1358,9 +1640,6 @@
     <t>We wanted to stay close to downtown as we were going to a Mavericks game but downtown hotels were pricy so I looked out a little farther and found this one.  Front desk was very helpful in giving directions to downtown which was about 10 minutes away.  The hotel and room was very clean but the only reason why I didn't give it a 5 was that the outdoor pool was very dirty.  There were leaves in it and didn't look like it had been cleaned for awhile.  Hot tub was cold.  Complimentary breakfast in the morning was good and just a walk through the parking lot is a Taco Bell and KFC and Sonic.More</t>
   </si>
   <si>
-    <t>kimcht</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r100878329-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1376,9 +1655,6 @@
     <t>met my grown son in dallas for some vacation time and found this hotel to be great for our needs. big enough for the three of us with a king bed and a full fold out couch. breakfast was great and included, (hubbie and son were especially fond of the texas shaped waffles)right on highway 30 which we took to go both to downtown dallas attractions as well as fort worth attractions. staff was very nice and when we needed something they brought it up right away. everything was very clean as well.</t>
   </si>
   <si>
-    <t>bjwalter555</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r98611363-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1397,9 +1673,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t>learmanswife</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r88520926-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1418,9 +1691,6 @@
     <t>This is a smaller hotel. It is fairly new. All the rooms have a fold out sleeper sofa, coffee table, flat screen tv, free wifi, coffee, hair dryer, desk, fridge, microwave. There is a breakfast until 9:30 that slightly varies every morning....we enjoyed biscuits and gravy and sausage eggs and biscuits. They also have juice, coffee, hot chocolate, milk, Texas shaped waffles, fruit, bagels, muffins, pastrys, toast. Also Monday - Wednesday there are snacks in the evening. Hotel also has a mini pantry with drinks and various snacks and canned soup to purchase. The area seemed to be newer developed and we felt very safe. Theres any kind of fast food nearby you could want, Ihop, Chilis, Dennys, Starbucks. Theres also a walmart just across the highway.More</t>
   </si>
   <si>
-    <t>NurseNancy2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r76707938-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1725,24 @@
   </si>
   <si>
     <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1235854-r32141885-Comfort_Suites_West_Dallas_Cockrell_Hill-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>32141885</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>Amazing=New Hotel Cheap rates. Ask For Russell or Maria</t>
+  </si>
+  <si>
+    <t>I am just writing in to tell how much I loved the New Comfort Suites on the West side of Dallas. I was just in for the weekend and had a blast. This hotel had great hot breakfast, large rooms, with all the goodies, Big TV, Fridge, Microwave and everything. Right off of I30 and cose to every thingI will be staying here again this summer to enjoy their nice pool, and super hot hottub.Frank</t>
+  </si>
+  <si>
+    <t>June 2009</t>
   </si>
 </sst>
 </file>
@@ -1959,47 +2247,43 @@
       <c r="A2" t="n">
         <v>59266</v>
       </c>
-      <c r="B2" t="n">
-        <v>880</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2013,54 +2297,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59266</v>
       </c>
-      <c r="B3" t="n">
-        <v>125821</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2080,54 +2360,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59266</v>
       </c>
-      <c r="B4" t="n">
-        <v>120362</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2139,60 +2415,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59266</v>
       </c>
-      <c r="B5" t="n">
-        <v>125822</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2208,60 +2480,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59266</v>
       </c>
-      <c r="B6" t="n">
-        <v>125823</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2273,264 +2541,226 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59266</v>
       </c>
-      <c r="B7" t="n">
-        <v>125824</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="X7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59266</v>
       </c>
-      <c r="B8" t="n">
-        <v>125825</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59266</v>
       </c>
-      <c r="B9" t="n">
-        <v>125826</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" t="s">
-        <v>115</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59266</v>
       </c>
-      <c r="B10" t="n">
-        <v>7212</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2539,228 +2769,218 @@
         <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59266</v>
       </c>
-      <c r="B11" t="n">
-        <v>125827</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>124</v>
-      </c>
-      <c r="X11" t="s">
-        <v>125</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59266</v>
       </c>
-      <c r="B12" t="n">
-        <v>125828</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59266</v>
       </c>
-      <c r="B13" t="n">
-        <v>48878</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>137</v>
       </c>
-      <c r="K13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>149</v>
-      </c>
       <c r="O13" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2773,171 +2993,169 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59266</v>
       </c>
-      <c r="B15" t="n">
-        <v>125829</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59266</v>
       </c>
-      <c r="B16" t="n">
-        <v>125830</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
@@ -2948,182 +3166,178 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59266</v>
       </c>
-      <c r="B17" t="n">
-        <v>125831</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59266</v>
       </c>
-      <c r="B18" t="n">
-        <v>91943</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59266</v>
       </c>
-      <c r="B19" t="n">
-        <v>51716</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3132,148 +3346,132 @@
         <v>182</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>201</v>
-      </c>
-      <c r="X19" t="s">
-        <v>202</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59266</v>
       </c>
-      <c r="B20" t="n">
-        <v>125832</v>
-      </c>
-      <c r="C20" t="s">
-        <v>204</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59266</v>
       </c>
-      <c r="B21" t="n">
-        <v>99703</v>
-      </c>
-      <c r="C21" t="s">
-        <v>212</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3282,60 +3480,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59266</v>
       </c>
-      <c r="B22" t="n">
-        <v>49234</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3349,54 +3543,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59266</v>
       </c>
-      <c r="B23" t="n">
-        <v>125833</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3410,54 +3600,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59266</v>
       </c>
-      <c r="B24" t="n">
-        <v>125834</v>
-      </c>
-      <c r="C24" t="s">
-        <v>234</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3467,132 +3653,122 @@
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>218</v>
+      </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59266</v>
       </c>
-      <c r="B25" t="n">
-        <v>46989</v>
-      </c>
-      <c r="C25" t="s">
-        <v>241</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59266</v>
       </c>
-      <c r="B26" t="n">
-        <v>125835</v>
-      </c>
-      <c r="C26" t="s">
-        <v>248</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>5</v>
@@ -3607,267 +3783,239 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59266</v>
       </c>
-      <c r="B27" t="n">
-        <v>125836</v>
-      </c>
-      <c r="C27" t="s">
-        <v>255</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59266</v>
       </c>
-      <c r="B28" t="n">
-        <v>125837</v>
-      </c>
-      <c r="C28" t="s">
-        <v>265</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="X28" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59266</v>
       </c>
-      <c r="B29" t="n">
-        <v>125838</v>
-      </c>
-      <c r="C29" t="s">
-        <v>272</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>278</v>
-      </c>
-      <c r="X29" t="s">
-        <v>279</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59266</v>
       </c>
-      <c r="B30" t="n">
-        <v>125839</v>
-      </c>
-      <c r="C30" t="s">
-        <v>281</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3877,72 +4025,66 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59266</v>
       </c>
-      <c r="B31" t="n">
-        <v>125840</v>
-      </c>
-      <c r="C31" t="s">
-        <v>288</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3950,545 +4092,488 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59266</v>
       </c>
-      <c r="B32" t="n">
-        <v>125841</v>
-      </c>
-      <c r="C32" t="s">
-        <v>294</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>274</v>
+      </c>
+      <c r="X32" t="s">
+        <v>275</v>
+      </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59266</v>
       </c>
-      <c r="B33" t="n">
-        <v>125842</v>
-      </c>
-      <c r="C33" t="s">
-        <v>301</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>164</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59266</v>
       </c>
-      <c r="B34" t="n">
-        <v>125843</v>
-      </c>
-      <c r="C34" t="s">
-        <v>308</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59266</v>
       </c>
-      <c r="B35" t="n">
-        <v>125844</v>
-      </c>
-      <c r="C35" t="s">
-        <v>318</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>324</v>
-      </c>
-      <c r="X35" t="s">
-        <v>325</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59266</v>
       </c>
-      <c r="B36" t="n">
-        <v>125845</v>
-      </c>
-      <c r="C36" t="s">
-        <v>327</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J36" t="s"/>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59266</v>
       </c>
-      <c r="B37" t="n">
-        <v>125846</v>
-      </c>
-      <c r="C37" t="s">
-        <v>330</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>4</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59266</v>
       </c>
-      <c r="B38" t="n">
-        <v>78491</v>
-      </c>
-      <c r="C38" t="s">
-        <v>337</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59266</v>
       </c>
-      <c r="B39" t="n">
-        <v>125847</v>
-      </c>
-      <c r="C39" t="s">
-        <v>344</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>4</v>
@@ -4499,66 +4584,60 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59266</v>
       </c>
-      <c r="B40" t="n">
-        <v>125848</v>
-      </c>
-      <c r="C40" t="s">
-        <v>352</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4566,64 +4645,56 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59266</v>
       </c>
-      <c r="B41" t="n">
-        <v>9867</v>
-      </c>
-      <c r="C41" t="s">
-        <v>358</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s">
-        <v>123</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4634,216 +4705,188 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>365</v>
-      </c>
-      <c r="X41" t="s">
-        <v>366</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59266</v>
       </c>
-      <c r="B42" t="n">
-        <v>125849</v>
-      </c>
-      <c r="C42" t="s">
-        <v>368</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59266</v>
       </c>
-      <c r="B43" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>376</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>290</v>
+      </c>
+      <c r="X43" t="s">
+        <v>291</v>
+      </c>
       <c r="Y43" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59266</v>
       </c>
-      <c r="B44" t="n">
-        <v>125850</v>
-      </c>
-      <c r="C44" t="s">
-        <v>383</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4851,69 +4894,65 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59266</v>
       </c>
-      <c r="B45" t="n">
-        <v>18703</v>
-      </c>
-      <c r="C45" t="s">
-        <v>390</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4922,73 +4961,69 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>357</v>
+      </c>
+      <c r="X45" t="s">
+        <v>358</v>
+      </c>
       <c r="Y45" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59266</v>
       </c>
-      <c r="B46" t="n">
-        <v>29372</v>
-      </c>
-      <c r="C46" t="s">
-        <v>397</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>401</v>
+        <v>65</v>
       </c>
       <c r="L46" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4996,62 +5031,62 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59266</v>
       </c>
-      <c r="B47" t="n">
-        <v>125851</v>
-      </c>
-      <c r="C47" t="s">
-        <v>404</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5063,60 +5098,60 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59266</v>
       </c>
-      <c r="B48" t="n">
-        <v>125852</v>
-      </c>
-      <c r="C48" t="s">
-        <v>410</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -5130,204 +5165,190 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59266</v>
       </c>
-      <c r="B49" t="n">
-        <v>125853</v>
-      </c>
-      <c r="C49" t="s">
-        <v>418</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="J49" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59266</v>
       </c>
-      <c r="B50" t="n">
-        <v>125854</v>
-      </c>
-      <c r="C50" t="s">
-        <v>425</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="J50" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>394</v>
+      </c>
+      <c r="X50" t="s">
+        <v>395</v>
+      </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59266</v>
       </c>
-      <c r="B51" t="n">
-        <v>29192</v>
-      </c>
-      <c r="C51" t="s">
-        <v>432</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>438</v>
-      </c>
-      <c r="O51" t="s">
-        <v>54</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
         <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5335,66 +5356,66 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59266</v>
       </c>
-      <c r="B52" t="n">
-        <v>125855</v>
-      </c>
-      <c r="C52" t="s">
-        <v>440</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="J52" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="K52" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5402,54 +5423,50 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59266</v>
       </c>
-      <c r="B53" t="n">
-        <v>125856</v>
-      </c>
-      <c r="C53" t="s">
-        <v>446</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="J53" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="K53" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5473,134 +5490,130 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59266</v>
       </c>
-      <c r="B54" t="n">
-        <v>125857</v>
-      </c>
-      <c r="C54" t="s">
-        <v>453</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>420</v>
+      </c>
+      <c r="X54" t="s">
+        <v>421</v>
+      </c>
       <c r="Y54" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59266</v>
       </c>
-      <c r="B55" t="n">
-        <v>125858</v>
-      </c>
-      <c r="C55" t="s">
-        <v>460</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>4</v>
@@ -5612,81 +5625,1472 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>428</v>
+      </c>
+      <c r="X55" t="s">
+        <v>429</v>
+      </c>
       <c r="Y55" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59266</v>
       </c>
-      <c r="B56" t="n">
-        <v>125852</v>
-      </c>
-      <c r="C56" t="s">
-        <v>418</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="J56" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>436</v>
+      </c>
+      <c r="X56" t="s">
+        <v>437</v>
+      </c>
       <c r="Y56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>446</v>
+      </c>
+      <c r="J58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K58" t="s">
+        <v>448</v>
+      </c>
+      <c r="L58" t="s">
+        <v>449</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>450</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>452</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+      <c r="J60" t="s">
+        <v>460</v>
+      </c>
+      <c r="K60" t="s">
+        <v>461</v>
+      </c>
+      <c r="L60" t="s">
+        <v>462</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>464</v>
+      </c>
+      <c r="J61" t="s">
+        <v>465</v>
+      </c>
+      <c r="K61" t="s">
+        <v>466</v>
+      </c>
+      <c r="L61" t="s">
+        <v>467</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>468</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>469</v>
+      </c>
+      <c r="X61" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y61" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>485</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>486</v>
+      </c>
+      <c r="J64" t="s">
+        <v>487</v>
+      </c>
+      <c r="K64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>490</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s">
+        <v>495</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>490</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>97</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>503</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>504</v>
+      </c>
+      <c r="J67" t="s">
+        <v>505</v>
+      </c>
+      <c r="K67" t="s">
+        <v>506</v>
+      </c>
+      <c r="L67" t="s">
+        <v>507</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>508</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>509</v>
+      </c>
+      <c r="J68" t="s">
+        <v>510</v>
+      </c>
+      <c r="K68" t="s">
+        <v>511</v>
+      </c>
+      <c r="L68" t="s">
+        <v>512</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>513</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>516</v>
+      </c>
+      <c r="J69" t="s">
+        <v>517</v>
+      </c>
+      <c r="K69" t="s">
+        <v>518</v>
+      </c>
+      <c r="L69" t="s">
+        <v>519</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>520</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>522</v>
+      </c>
+      <c r="J70" t="s">
+        <v>523</v>
+      </c>
+      <c r="K70" t="s">
+        <v>524</v>
+      </c>
+      <c r="L70" t="s">
+        <v>525</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>513</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>527</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>528</v>
+      </c>
+      <c r="J71" t="s">
+        <v>529</v>
+      </c>
+      <c r="K71" t="s">
+        <v>530</v>
+      </c>
+      <c r="L71" t="s">
+        <v>531</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>532</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>544</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>546</v>
+      </c>
+      <c r="J74" t="s">
+        <v>547</v>
+      </c>
+      <c r="K74" t="s">
+        <v>548</v>
+      </c>
+      <c r="L74" t="s">
+        <v>549</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>544</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>551</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>552</v>
+      </c>
+      <c r="J75" t="s">
+        <v>553</v>
+      </c>
+      <c r="K75" t="s">
+        <v>554</v>
+      </c>
+      <c r="L75" t="s">
+        <v>555</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>556</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>557</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>558</v>
+      </c>
+      <c r="J76" t="s">
+        <v>559</v>
+      </c>
+      <c r="K76" t="s">
+        <v>560</v>
+      </c>
+      <c r="L76" t="s">
+        <v>561</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>562</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59266</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>563</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>564</v>
+      </c>
+      <c r="J77" t="s">
+        <v>565</v>
+      </c>
+      <c r="K77" t="s">
+        <v>566</v>
+      </c>
+      <c r="L77" t="s">
+        <v>567</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>568</v>
+      </c>
+      <c r="O77" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
